--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはJP_MedicationRequestBaseリソースに対して、注射薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
+    <t>このプロファイルはMedicationRequestリソースに対して、注射薬剤処方のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -265,7 +265,7 @@
     <t>患者あるいはグループに対しての注射薬剤処方オーダ</t>
   </si>
   <si>
-    <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。JP_MedicationRequestBaseプロファイルからの派生プロファイルである。</t>
+    <t>患者への薬の供給と注射や点滴の指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。MedicationRequestプロファイルからの派生プロファイルである。</t>
   </si>
   <si>
     <t>Request</t>
@@ -736,34 +736,46 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>requestIdentifierCommon</t>
+  </si>
+  <si>
+    <t>処方箋に対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.11</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>requestIdentifier</t>
   </si>
   <si>
     <t>処方オーダに対するID</t>
   </si>
   <si>
-    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>薬剤をオーダする単位としての処方依頼に対するID。MedicationRequestは単一の薬剤でインスタンスが作成される。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -1000,6 +1012,15 @@
 </t>
   </si>
   <si>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -1905,7 +1926,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -2270,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2280,7 +2301,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.5703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4734,7 +4755,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -5751,30 +5772,32 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>243</v>
@@ -5783,7 +5806,7 @@
         <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5809,13 +5832,13 @@
         <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>81</v>
@@ -5833,13 +5856,13 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
@@ -5848,24 +5871,24 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5888,17 +5911,15 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5923,13 +5944,13 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>81</v>
@@ -5947,7 +5968,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5959,16 +5980,16 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5979,39 +6000,39 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6037,55 +6058,55 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6093,7 +6114,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6104,30 +6125,32 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6151,11 +6174,13 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -6173,13 +6198,13 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
@@ -6191,21 +6216,21 @@
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6228,18 +6253,20 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6263,13 +6290,13 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -6287,7 +6314,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6302,24 +6329,24 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6327,7 +6354,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
@@ -6336,36 +6363,38 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6401,7 +6430,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6422,18 +6451,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6441,7 +6470,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -6456,15 +6485,17 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6477,7 +6508,7 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6513,7 +6544,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6534,18 +6565,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6553,7 +6584,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
@@ -6568,17 +6599,15 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6615,20 +6644,22 @@
         <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -6640,34 +6671,32 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>307</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>88</v>
@@ -6682,16 +6711,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6741,10 +6770,10 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6756,24 +6785,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6790,22 +6819,22 @@
         <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6831,13 +6860,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6855,7 +6884,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -6870,24 +6899,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6910,16 +6939,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6945,13 +6974,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -6969,7 +6998,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6984,24 +7013,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7009,31 +7038,31 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7059,13 +7088,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -7083,13 +7112,13 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
@@ -7098,16 +7127,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7115,7 +7144,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7123,10 +7152,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -7135,18 +7164,20 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7171,13 +7202,11 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -7195,13 +7224,13 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
@@ -7210,24 +7239,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7250,16 +7279,16 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7285,13 +7314,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7309,7 +7338,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7324,16 +7353,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7341,7 +7370,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7358,22 +7387,22 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7423,7 +7452,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7438,16 +7467,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7455,7 +7484,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7478,17 +7507,15 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7513,11 +7540,13 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>81</v>
@@ -7535,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7550,13 +7579,13 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7567,7 +7596,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7575,7 +7604,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
@@ -7587,19 +7616,19 @@
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7637,22 +7666,20 @@
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7664,35 +7691,37 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7701,19 +7730,19 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7739,13 +7768,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7763,13 +7792,13 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7778,24 +7807,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>381</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7803,10 +7832,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7815,19 +7844,19 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7877,13 +7906,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7892,24 +7921,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7920,7 +7949,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7929,19 +7958,19 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7991,13 +8020,13 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>81</v>
@@ -8006,24 +8035,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8043,19 +8072,19 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>102</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8105,7 +8134,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8120,16 +8149,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8137,7 +8166,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8145,10 +8174,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>81</v>
@@ -8160,17 +8189,15 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8219,13 +8246,13 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
@@ -8234,24 +8261,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8274,18 +8301,18 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8333,7 +8360,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8348,16 +8375,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8365,7 +8392,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8388,16 +8415,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>189</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8423,13 +8450,13 @@
         <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>81</v>
@@ -8447,7 +8474,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8462,16 +8489,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8479,7 +8506,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8490,7 +8517,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
@@ -8499,19 +8526,19 @@
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>419</v>
+        <v>189</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8537,13 +8564,11 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8561,13 +8586,13 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>81</v>
@@ -8576,13 +8601,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8593,7 +8618,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8604,7 +8629,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
@@ -8616,16 +8641,16 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8675,13 +8700,13 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
@@ -8690,16 +8715,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8707,7 +8732,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8730,16 +8755,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8765,13 +8790,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8789,7 +8814,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8804,24 +8829,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8832,7 +8857,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8844,15 +8869,17 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8901,13 +8928,13 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
@@ -8916,16 +8943,16 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8933,7 +8960,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8944,7 +8971,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8953,18 +8980,20 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>168</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -9013,28 +9042,28 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -9045,7 +9074,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9065,18 +9094,20 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9113,17 +9144,19 @@
         <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>177</v>
+        <v>403</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9135,7 +9168,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9144,7 +9177,7 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9155,11 +9188,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9177,18 +9208,20 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9237,7 +9270,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>177</v>
+        <v>406</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9246,19 +9279,19 @@
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9269,11 +9302,9 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9291,19 +9322,21 @@
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>452</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9351,28 +9384,28 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>177</v>
+        <v>412</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9383,43 +9416,41 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9443,13 +9474,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9467,19 +9498,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9488,7 +9519,7 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9499,7 +9530,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9510,7 +9541,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9522,16 +9553,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>463</v>
+        <v>340</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9581,13 +9612,13 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
@@ -9596,13 +9627,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9613,7 +9644,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9624,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9636,15 +9667,17 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>169</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9693,28 +9726,28 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>172</v>
+        <v>438</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9725,11 +9758,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9748,16 +9781,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>440</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>149</v>
+        <v>442</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9807,7 +9840,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>177</v>
+        <v>439</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9819,7 +9852,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>81</v>
@@ -9828,7 +9861,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>172</v>
+        <v>443</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9839,43 +9872,39 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9923,28 +9952,28 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9955,7 +9984,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9978,17 +10007,15 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>469</v>
+        <v>168</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10037,7 +10064,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>468</v>
+        <v>171</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10046,10 +10073,10 @@
         <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>81</v>
@@ -10058,18 +10085,18 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10080,7 +10107,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>81</v>
@@ -10092,17 +10119,15 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>477</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>478</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10139,31 +10164,29 @@
         <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>476</v>
+        <v>177</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10172,7 +10195,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10183,9 +10206,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10194,7 +10219,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10206,17 +10231,15 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10265,19 +10288,19 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>481</v>
+        <v>177</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -10286,7 +10309,7 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10297,9 +10320,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10320,20 +10345,16 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>218</v>
+        <v>459</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10381,28 +10402,28 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>484</v>
+        <v>177</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10413,39 +10434,43 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10493,19 +10518,19 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>171</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>81</v>
@@ -10514,7 +10539,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10525,18 +10550,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10548,16 +10573,16 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>174</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>175</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>470</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10595,31 +10620,31 @@
         <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>177</v>
+        <v>467</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>81</v>
@@ -10628,7 +10653,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10639,7 +10664,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10659,20 +10684,18 @@
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>494</v>
+        <v>169</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
@@ -10721,7 +10744,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>497</v>
+        <v>171</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10730,10 +10753,10 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>81</v>
@@ -10742,29 +10765,29 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>499</v>
+        <v>172</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>81</v>
@@ -10773,27 +10796,25 @@
         <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>502</v>
+        <v>174</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>504</v>
+        <v>149</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P75" t="s" s="2">
-        <v>505</v>
-      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>81</v>
       </c>
@@ -10837,19 +10858,19 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>506</v>
+        <v>177</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10858,52 +10879,54 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>172</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>510</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10951,39 +10974,39 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>515</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>516</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11006,16 +11029,16 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>518</v>
+        <v>477</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11065,7 +11088,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11077,7 +11100,7 @@
         <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
@@ -11086,18 +11109,18 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11120,16 +11143,16 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11179,7 +11202,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11197,10 +11220,10 @@
         <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11211,7 +11234,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11234,15 +11257,17 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11291,7 +11316,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>171</v>
+        <v>488</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11303,7 +11328,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>81</v>
@@ -11312,7 +11337,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>172</v>
+        <v>487</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11323,18 +11348,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
@@ -11346,18 +11371,20 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>174</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11393,40 +11420,40 @@
         <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>177</v>
+        <v>491</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>172</v>
+        <v>497</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11437,7 +11464,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11457,23 +11484,19 @@
         <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>529</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11521,7 +11544,7 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>534</v>
+        <v>171</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
@@ -11533,7 +11556,7 @@
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
@@ -11542,58 +11565,56 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>535</v>
+        <v>172</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>174</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P82" t="s" s="2">
-        <v>541</v>
-      </c>
+      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11613,43 +11634,43 @@
         <v>81</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>543</v>
+        <v>81</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>177</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>81</v>
@@ -11658,18 +11679,18 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>545</v>
+        <v>172</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>546</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11692,24 +11713,24 @@
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>81</v>
@@ -11751,7 +11772,7 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11760,7 +11781,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11772,18 +11793,18 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>553</v>
+        <v>506</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>554</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11806,24 +11827,26 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>102</v>
+        <v>344</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="Q84" t="s" s="2">
-        <v>559</v>
+        <v>81</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>81</v>
@@ -11865,7 +11888,7 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11874,7 +11897,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11886,18 +11909,18 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>554</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11917,29 +11940,27 @@
         <v>81</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>108</v>
+        <v>517</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>81</v>
@@ -11981,7 +12002,7 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -11999,21 +12020,21 @@
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12036,16 +12057,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>572</v>
+        <v>476</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>574</v>
+        <v>526</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12095,7 +12116,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12104,10 +12125,10 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12116,18 +12137,18 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12150,15 +12171,17 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>81</v>
@@ -12207,7 +12230,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12225,10 +12248,10 @@
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12239,7 +12262,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12351,7 +12374,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12421,16 +12444,16 @@
         <v>81</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>177</v>
@@ -12465,42 +12488,42 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>133</v>
+        <v>536</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>149</v>
+        <v>539</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>81</v>
@@ -12549,19 +12572,19 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
@@ -12570,18 +12593,18 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>131</v>
+        <v>542</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>81</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12589,7 +12612,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>88</v>
@@ -12598,28 +12621,30 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="Q91" t="s" s="2">
         <v>81</v>
       </c>
@@ -12639,11 +12664,13 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X91" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="Y91" t="s" s="2">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>81</v>
@@ -12661,10 +12688,10 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>88</v>
@@ -12679,21 +12706,21 @@
         <v>81</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>579</v>
+        <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>589</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12713,27 +12740,27 @@
         <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>81</v>
@@ -12751,13 +12778,13 @@
         <v>81</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>81</v>
@@ -12775,7 +12802,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12793,21 +12820,21 @@
         <v>81</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>598</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12827,27 +12854,27 @@
         <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>600</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
@@ -12889,7 +12916,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12898,41 +12925,41 @@
         <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>606</v>
+        <v>81</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>81</v>
@@ -12941,27 +12968,29 @@
         <v>81</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>607</v>
+        <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
@@ -13003,13 +13032,13 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>81</v>
@@ -13024,18 +13053,18 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13046,7 +13075,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>81</v>
@@ -13058,16 +13087,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>616</v>
+        <v>340</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13117,13 +13146,13 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>81</v>
@@ -13132,18 +13161,1040 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X100" s="2"/>
+      <c r="Y100" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AM95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AM103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
